--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,120 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usamakov/upwork/honk/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887893CF-2A07-0746-AE2A-621FE32D25F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
-  <si>
-    <t>&lt;blank&gt;</t>
-  </si>
-  <si>
-    <t>Pre Title</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Pre Description</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Images 1</t>
-  </si>
-  <si>
-    <t>Images 2</t>
-  </si>
-  <si>
-    <t>Images 3</t>
-  </si>
-  <si>
-    <t>Images 4</t>
-  </si>
-  <si>
-    <t>Images 5</t>
-  </si>
-  <si>
-    <t>Images 6</t>
-  </si>
-  <si>
-    <t>Images 7</t>
-  </si>
-  <si>
-    <t>Images 8</t>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Carousell URL</t>
-  </si>
-  <si>
-    <t>Posted Date</t>
-  </si>
-  <si>
-    <t>Titile</t>
-  </si>
-  <si>
-    <t>pre-description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>https://cdn.britannica.com/88/212888-050-6795342C/study-lamp-electrical-cord.jpg</t>
-  </si>
-  <si>
-    <t>https://cb2.scene7.com/is/image/CB2/KMPolarTableLampSHS21/$web_pdp_main_carousel_zoom_xs$/210210135642/polar-table-lamp.jpg</t>
-  </si>
-  <si>
-    <t>Headphone</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -160,24 +78,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -477,112 +454,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col width="21" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>17</v>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>&lt;blank&gt;</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>&lt;blank&gt;</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>&lt;blank&gt;</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pre Title</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Pre Description</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Images 1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Images 2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Images 3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Images 4</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Images 5</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Images 6</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Images 7</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Images 8</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>CATEGORY</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Carousell URL</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Posted Date</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pre Title</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Titile</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>1200</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>23</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>pre-description</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://cdn.britannica.com/88/212888-050-6795342C/study-lamp-electrical-cord.jpg</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://cb2.scene7.com/is/image/CB2/KMPolarTableLampSHS21/$web_pdp_main_carousel_zoom_xs$/210210135642/polar-table-lamp.jpg</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Headphone</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>03/25/2022, 11:26:36</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -459,13 +459,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
     <col width="21" customWidth="1" min="7" max="7"/>
   </cols>
@@ -582,7 +582,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="21" customHeight="1">
       <c r="D2" t="inlineStr">
         <is>
           <t>Pre Title</t>
@@ -629,6 +629,331 @@
       <c r="AD2" t="inlineStr">
         <is>
           <t>03/25/2022, 11:26:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pre Title</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Titile</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1201</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>pre-description</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://cdn.britannica.com/88/212888-050-6795342C/study-lamp-electrical-cord.jpg</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://cb2.scene7.com/is/image/CB2/KMPolarTableLampSHS21/$web_pdp_main_carousel_zoom_xs$/210210135642/polar-table-lamp.jpg</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Headphone</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>03/27/2022, 15:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Pre Title</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Titile</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>pre-description</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://cdn.britannica.com/88/212888-050-6795342C/study-lamp-electrical-cord.jpg</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https://cb2.scene7.com/is/image/CB2/KMPolarTableLampSHS21/$web_pdp_main_carousel_zoom_xs$/210210135642/polar-table-lamp.jpg</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Headphone</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>03/27/2022, 15:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pre Title</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Titile</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1203</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>pre-description</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://cdn.britannica.com/88/212888-050-6795342C/study-lamp-electrical-cord.jpg</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>https://cb2.scene7.com/is/image/CB2/KMPolarTableLampSHS21/$web_pdp_main_carousel_zoom_xs$/210210135642/polar-table-lamp.jpg</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Headphone</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>03/27/2022, 15:15:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Pre Title</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Titile</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1204</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>pre-description</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://cdn.britannica.com/88/212888-050-6795342C/study-lamp-electrical-cord.jpg</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https://cb2.scene7.com/is/image/CB2/KMPolarTableLampSHS21/$web_pdp_main_carousel_zoom_xs$/210210135642/polar-table-lamp.jpg</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Headphone</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>03/27/2022, 15:15:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Pre Title</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Titile</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1205</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>pre-description</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://cdn.britannica.com/88/212888-050-6795342C/study-lamp-electrical-cord.jpg</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https://cb2.scene7.com/is/image/CB2/KMPolarTableLampSHS21/$web_pdp_main_carousel_zoom_xs$/210210135642/polar-table-lamp.jpg</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Headphone</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>03/27/2022, 15:15:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Pre Title</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Titile</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1206</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>pre-description</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://cdn.britannica.com/88/212888-050-6795342C/study-lamp-electrical-cord.jpg</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https://cb2.scene7.com/is/image/CB2/KMPolarTableLampSHS21/$web_pdp_main_carousel_zoom_xs$/210210135642/polar-table-lamp.jpg</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Headphone</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>03/25/2022, 11:26:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Pre Title</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Titile</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1207</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>pre-description</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://cdn.britannica.com/88/212888-050-6795342C/study-lamp-electrical-cord.jpg</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>https://cb2.scene7.com/is/image/CB2/KMPolarTableLampSHS21/$web_pdp_main_carousel_zoom_xs$/210210135642/polar-table-lamp.jpg</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Headphone</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>03/25/2022, 11:26:43</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -462,7 +462,7 @@
   <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
@@ -618,7 +618,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Headphone</t>
+          <t>BBQ</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>03/25/2022, 11:26:36</t>
+          <t>03/27/2022, 16:49:50</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Duplicate</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>03/27/2022, 15:19:39</t>
+          <t>03/27/2022, 16:42:35</t>
         </is>
       </c>
     </row>
@@ -771,9 +771,14 @@
           <t>Headphone</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>03/27/2022, 15:15:35</t>
+          <t>03/27/2022, 16:49:50</t>
         </is>
       </c>
     </row>
@@ -816,9 +821,14 @@
           <t>Headphone</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>03/27/2022, 15:15:35</t>
+          <t>03/27/2022, 16:42:35</t>
         </is>
       </c>
     </row>
@@ -861,9 +871,14 @@
           <t>Headphone</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>03/27/2022, 15:15:35</t>
+          <t>03/27/2022, 16:41:13</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -461,11 +461,11 @@
   </sheetPr>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col width="21" customWidth="1" min="7" max="7"/>
   </cols>
@@ -623,12 +623,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Duplicate</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>03/27/2022, 16:49:50</t>
+          <t>04/04/2022, 17:40:09</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -461,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -618,17 +618,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>BBQ</t>
+          <t>Other Food &amp; Drinks</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Duplicate</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>04/04/2022, 17:40:09</t>
+          <t>04/04/2022, 18:09:28</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>03/27/2022, 16:49:50</t>
+          <t>04/04/2022, 18:17:43</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -461,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -618,17 +618,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Other Food &amp; Drinks</t>
+          <t>Babies &amp; Kids Fashion</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Duplicate</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>04/04/2022, 18:09:28</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -668,17 +663,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Headphone</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Duplicate</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>03/27/2022, 15:19:39</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -718,17 +708,12 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Headphone</t>
+          <t>Heels</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Duplicate</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>03/27/2022, 16:42:35</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -768,17 +753,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Headphone</t>
+          <t>Babies &amp; Kids Fashion</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>Error</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>04/04/2022, 18:17:43</t>
         </is>
       </c>
     </row>
@@ -821,16 +801,6 @@
           <t>Headphone</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>03/27/2022, 16:42:35</t>
-        </is>
-      </c>
     </row>
     <row r="7" ht="21" customHeight="1">
       <c r="D7" t="inlineStr">
@@ -871,16 +841,6 @@
           <t>Headphone</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>03/27/2022, 16:41:13</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="D8" t="inlineStr">
@@ -921,11 +881,6 @@
           <t>Headphone</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>03/25/2022, 11:26:42</t>
-        </is>
-      </c>
     </row>
     <row r="9" ht="21" customHeight="1">
       <c r="D9" t="inlineStr">
@@ -964,11 +919,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>Headphone</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>03/25/2022, 11:26:43</t>
         </is>
       </c>
     </row>
